--- a/biology/Botanique/Yvonne_Rabier/Yvonne_Rabier.xlsx
+++ b/biology/Botanique/Yvonne_Rabier/Yvonne_Rabier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Yvonne Rabier' est un cultivar de rosier obtenu en 1910[1] par le rosiériste français Eugène Turbat. Il doit son nom à la fille[2] du député et futur sénateur Fernand Rabier, ami d'Eugène Turbat.
+'Yvonne Rabier' est un cultivar de rosier obtenu en 1910 par le rosiériste français Eugène Turbat. Il doit son nom à la fille du député et futur sénateur Fernand Rabier, ami d'Eugène Turbat.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier fameux est un rosier nain et presque inerme, très prisé pour sa longue floraison et son parfum capiteux[3]. Il se présente sous la forme d'un petit buisson de 50 à 70 cm avec des fleurs doubles en pompons fleurissant en grappes et de couleur blanche. Sa floraison est remontante et dure tard dans la saison[4].
-Il s'adapte à tous les climats (jusqu'à -20°[5]) et supporte l'ombre légère[3].
-Ce rosier très généreux est parfait pour les petits jardins ou les massifs bas en premier plan. Il peut aussi se cultiver en pot ou en jardinière[6]. Il a besoin d'être taillé au tout début du printemps.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier fameux est un rosier nain et presque inerme, très prisé pour sa longue floraison et son parfum capiteux. Il se présente sous la forme d'un petit buisson de 50 à 70 cm avec des fleurs doubles en pompons fleurissant en grappes et de couleur blanche. Sa floraison est remontante et dure tard dans la saison.
+Il s'adapte à tous les climats (jusqu'à -20°) et supporte l'ombre légère.
+Ce rosier très généreux est parfait pour les petits jardins ou les massifs bas en premier plan. Il peut aussi se cultiver en pot ou en jardinière. Il a besoin d'être taillé au tout début du printemps.
 </t>
         </is>
       </c>
